--- a/config/excel/任务.xlsx
+++ b/config/excel/任务.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A9359-7C2C-48F0-A5C6-872033293556}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,93 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>任务目标</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +415,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/excel/任务.xlsx
+++ b/config/excel/任务.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A9359-7C2C-48F0-A5C6-872033293556}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5254F4F2-D8C3-4273-913B-7F99A4039F51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +415,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,8 +488,8 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
+      <c r="C3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/任务.xlsx
+++ b/config/excel/任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5254F4F2-D8C3-4273-913B-7F99A4039F51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C911FC9-7B57-46D2-B66A-D105B91E9540}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,6 +491,39 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>111</v>
+      </c>
+      <c r="K3">
+        <v>222</v>
+      </c>
+      <c r="L3">
+        <v>333</v>
+      </c>
+      <c r="M3">
+        <v>1111</v>
+      </c>
+      <c r="N3">
+        <v>2222</v>
+      </c>
+      <c r="O3">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/任务.xlsx
+++ b/config/excel/任务.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C911FC9-7B57-46D2-B66A-D105B91E9540}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5808A76-4A15-4C8B-9191-FDB368328578}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,7 +489,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
